--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-09_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-09_valid.xlsx
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>804</v>
+        <v>864</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>446.6666666666666</v>
+        <v>480</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.5254901960784313</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="CM2">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.3737461300309597</v>
+        <v>0.3817072091994693</v>
       </c>
     </row>
     <row r="3" spans="1:105">
@@ -15888,7 +15888,7 @@
         <v>10</v>
       </c>
       <c r="N47">
-        <v>4299</v>
+        <v>4315</v>
       </c>
       <c r="O47">
         <v>1654</v>
@@ -16002,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="AZ47">
-        <v>840.1954397394137</v>
+        <v>843.3224755700327</v>
       </c>
       <c r="BA47">
         <v>570.3448275862069</v>
@@ -16116,7 +16116,7 @@
         <v>0</v>
       </c>
       <c r="CL47">
-        <v>0.9884652232228397</v>
+        <v>0.9921440889059208</v>
       </c>
       <c r="CM47">
         <v>0.7129310344827586</v>
@@ -16161,7 +16161,7 @@
         <v>0</v>
       </c>
       <c r="DA47">
-        <v>0.871947688655212</v>
+        <v>0.8740353259282359</v>
       </c>
     </row>
     <row r="48" spans="1:105">
@@ -20326,7 +20326,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>5096</v>
+        <v>5112</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -20440,7 +20440,7 @@
         <v>0</v>
       </c>
       <c r="AZ61">
-        <v>667.5982532751092</v>
+        <v>669.6943231441048</v>
       </c>
       <c r="BA61">
         <v>0</v>
@@ -20554,7 +20554,7 @@
         <v>0</v>
       </c>
       <c r="CL61">
-        <v>0.7854097097354226</v>
+        <v>0.7878756742871822</v>
       </c>
       <c r="CM61">
         <v>0</v>
@@ -20599,7 +20599,7 @@
         <v>0</v>
       </c>
       <c r="DA61">
-        <v>0.7121776984038397</v>
+        <v>0.7143207947315549</v>
       </c>
     </row>
     <row r="62" spans="1:105">
